--- a/pred_ohlcv/54_21/2019-10-22 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 PPT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3619.914099999999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3222.293999999999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3477.605999999999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3089.654999999999</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2947.354999999999</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2827.354999999999</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3027.354999999999</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3028.354999999999</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>6012.807799999999</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>5905.807799999999</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>20223.0453</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>20423.0453</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>22987.2612</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>23886.1228</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>29469.5154</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>25465.3645</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>25672.3645</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>25619.6933</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>25619.6933</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>25257.6933</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>25511.1933</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>24134.86369999999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>31739.11099999999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>32284.11099999999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>31283.63959999999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>31244.69409999999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>24498.27749999999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>27032.78389999999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>25000.11789999999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>25000.11789999999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>58832.98036863999</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>58832.98036863999</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>54835.01236863999</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>55363.67506863999</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>55363.67506863999</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>56318.05666863999</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>54961.91316863999</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>55079.94579818999</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>55079.94579818999</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>55079.94579818999</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>55109.38639818999</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>53932.53179818999</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>53143.27559818999</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>53143.27559818999</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>51253.44729818999</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>49842.33612143999</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>3782.688567479996</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>2820.940267479996</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-22 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 PPT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3619.914099999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3222.293999999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3477.605999999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3089.654999999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2947.354999999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2827.354999999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3027.354999999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3028.354999999999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>6012.807799999999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>5905.807799999999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>5905.807799999999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>5955.807799999999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>5955.807799999999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,7 +938,7 @@
         <v>5955.807799999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>5761.407799999999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>6328.560699999999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>6661.560699999999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>20223.0453</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>20423.0453</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>22987.2612</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>23886.1228</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>29469.5154</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>25465.3645</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>25672.3645</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>25619.6933</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>25619.6933</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>25257.6933</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>25511.1933</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>24134.86369999999</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>31739.11099999999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>32284.11099999999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>31283.63959999999</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>31244.69409999999</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>24498.27749999999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>27032.78389999999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>25000.11789999999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>25000.11789999999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>46203.40842275999</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>44289.35002275999</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>42449.94772275999</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>42449.94772275999</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>42449.94772275999</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>36210.83624825998</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>36439.83624825998</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>39743.33096863999</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>40170.43096863999</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>41129.76576863998</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>43888.56693177999</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>46757.95683177999</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>46549.95683177999</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>44772.29893177999</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>44772.29893177999</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>46009.60863177999</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>50160.24953177999</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>59425.22856863999</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>58832.98036863999</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>58832.98036863999</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>54835.01236863999</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>55363.67506863999</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>55363.67506863999</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>56318.05666863999</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>54961.91316863999</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>55079.94579818999</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>55079.94579818999</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>55079.94579818999</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>55109.38639818999</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>53932.53179818999</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>53143.27559818999</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>53143.27559818999</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>51253.44729818999</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>51253.44729818999</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>44907.44859818999</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>44659.41309818999</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>44668.41309818999</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>44401.60989818998</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>43734.73279818999</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>44051.06169818999</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>49842.33612143999</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>49842.33612143999</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>40945.70852143999</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>3782.688567479996</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>2820.940267479996</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
